--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.446933</v>
+        <v>32.669943</v>
       </c>
       <c r="H2">
-        <v>103.340799</v>
+        <v>98.009829</v>
       </c>
       <c r="I2">
-        <v>0.3406054910909001</v>
+        <v>0.344160451822467</v>
       </c>
       <c r="J2">
-        <v>0.3406054910909001</v>
+        <v>0.3441604518224671</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N2">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P2">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q2">
-        <v>3882.449506006089</v>
+        <v>2227.484705886267</v>
       </c>
       <c r="R2">
-        <v>34942.0455540548</v>
+        <v>20047.3623529764</v>
       </c>
       <c r="S2">
-        <v>0.07226029598968461</v>
+        <v>0.04282340468658093</v>
       </c>
       <c r="T2">
-        <v>0.07226029598968461</v>
+        <v>0.04282340468658094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.446933</v>
+        <v>32.669943</v>
       </c>
       <c r="H3">
-        <v>103.340799</v>
+        <v>98.009829</v>
       </c>
       <c r="I3">
-        <v>0.3406054910909001</v>
+        <v>0.344160451822467</v>
       </c>
       <c r="J3">
-        <v>0.3406054910909001</v>
+        <v>0.3441604518224671</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P3">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q3">
-        <v>6530.395131985859</v>
+        <v>6193.516175430058</v>
       </c>
       <c r="R3">
-        <v>58773.55618787273</v>
+        <v>55741.64557887053</v>
       </c>
       <c r="S3">
-        <v>0.12154395940936</v>
+        <v>0.1190703796584759</v>
       </c>
       <c r="T3">
-        <v>0.12154395940936</v>
+        <v>0.119070379658476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.446933</v>
+        <v>32.669943</v>
       </c>
       <c r="H4">
-        <v>103.340799</v>
+        <v>98.009829</v>
       </c>
       <c r="I4">
-        <v>0.3406054910909001</v>
+        <v>0.344160451822467</v>
       </c>
       <c r="J4">
-        <v>0.3406054910909001</v>
+        <v>0.3441604518224671</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N4">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P4">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q4">
-        <v>4075.839674531863</v>
+        <v>6142.374178388677</v>
       </c>
       <c r="R4">
-        <v>36682.55707078677</v>
+        <v>55281.3676054981</v>
       </c>
       <c r="S4">
-        <v>0.07585968106798355</v>
+        <v>0.1180871745078432</v>
       </c>
       <c r="T4">
-        <v>0.07585968106798355</v>
+        <v>0.1180871745078432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.446933</v>
+        <v>32.669943</v>
       </c>
       <c r="H5">
-        <v>103.340799</v>
+        <v>98.009829</v>
       </c>
       <c r="I5">
-        <v>0.3406054910909001</v>
+        <v>0.344160451822467</v>
       </c>
       <c r="J5">
-        <v>0.3406054910909001</v>
+        <v>0.3441604518224671</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N5">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P5">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q5">
-        <v>3811.595288013681</v>
+        <v>3338.334260611532</v>
       </c>
       <c r="R5">
-        <v>34304.35759212313</v>
+        <v>30045.00834550379</v>
       </c>
       <c r="S5">
-        <v>0.07094155462387199</v>
+        <v>0.06417949296956695</v>
       </c>
       <c r="T5">
-        <v>0.07094155462387197</v>
+        <v>0.06417949296956696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>120.33588</v>
       </c>
       <c r="I6">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="J6">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N6">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P6">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q6">
-        <v>4520.94412257068</v>
+        <v>2734.892357269241</v>
       </c>
       <c r="R6">
-        <v>40688.49710313612</v>
+        <v>24614.03121542316</v>
       </c>
       <c r="S6">
-        <v>0.08414398176831563</v>
+        <v>0.05257831933933731</v>
       </c>
       <c r="T6">
-        <v>0.08414398176831561</v>
+        <v>0.05257831933933731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>120.33588</v>
       </c>
       <c r="I7">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="J7">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P7">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q7">
         <v>7604.361999903199</v>
@@ -883,10 +883,10 @@
         <v>68439.25799912879</v>
       </c>
       <c r="S7">
-        <v>0.1415326710819181</v>
+        <v>0.1461938977379177</v>
       </c>
       <c r="T7">
-        <v>0.1415326710819181</v>
+        <v>0.1461938977379177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>120.33588</v>
       </c>
       <c r="I8">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="J8">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N8">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P8">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q8">
-        <v>4746.138589210108</v>
+        <v>7541.570162781108</v>
       </c>
       <c r="R8">
-        <v>42715.24730289097</v>
+        <v>67874.13146502998</v>
       </c>
       <c r="S8">
-        <v>0.08833530963734024</v>
+        <v>0.1449867243530736</v>
       </c>
       <c r="T8">
-        <v>0.08833530963734024</v>
+        <v>0.1449867243530736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>120.33588</v>
       </c>
       <c r="I9">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="J9">
-        <v>0.396620327110647</v>
+        <v>0.4225581378297699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N9">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P9">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q9">
-        <v>4438.437457668387</v>
+        <v>4098.786775608373</v>
       </c>
       <c r="R9">
-        <v>39945.93711901548</v>
+        <v>36889.08098047536</v>
       </c>
       <c r="S9">
-        <v>0.08260836462307307</v>
+        <v>0.07879919639944126</v>
       </c>
       <c r="T9">
-        <v>0.08260836462307304</v>
+        <v>0.07879919639944127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.22909066666666</v>
+        <v>21.811182</v>
       </c>
       <c r="H10">
-        <v>78.68727199999999</v>
+        <v>65.43354600000001</v>
       </c>
       <c r="I10">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="J10">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N10">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O10">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P10">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q10">
-        <v>2956.231839327725</v>
+        <v>1487.118429386358</v>
       </c>
       <c r="R10">
-        <v>26606.08655394952</v>
+        <v>13384.06586447722</v>
       </c>
       <c r="S10">
-        <v>0.05502149799848965</v>
+        <v>0.02858985929294918</v>
       </c>
       <c r="T10">
-        <v>0.05502149799848965</v>
+        <v>0.02858985929294918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.22909066666666</v>
+        <v>21.811182</v>
       </c>
       <c r="H11">
-        <v>78.68727199999999</v>
+        <v>65.43354600000001</v>
       </c>
       <c r="I11">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="J11">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O11">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P11">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q11">
-        <v>4972.469566623412</v>
+        <v>4134.92942189244</v>
       </c>
       <c r="R11">
-        <v>44752.22609961071</v>
+        <v>37214.36479703196</v>
       </c>
       <c r="S11">
-        <v>0.09254779028756363</v>
+        <v>0.07949403895623929</v>
       </c>
       <c r="T11">
-        <v>0.09254779028756363</v>
+        <v>0.0794940389562393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.22909066666666</v>
+        <v>21.811182</v>
       </c>
       <c r="H12">
-        <v>78.68727199999999</v>
+        <v>65.43354600000001</v>
       </c>
       <c r="I12">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="J12">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N12">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O12">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P12">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q12">
-        <v>3103.485827492781</v>
+        <v>4100.785884962699</v>
       </c>
       <c r="R12">
-        <v>27931.37244743502</v>
+        <v>36907.07296466429</v>
       </c>
       <c r="S12">
-        <v>0.05776219475552604</v>
+        <v>0.07883762928684415</v>
       </c>
       <c r="T12">
-        <v>0.05776219475552604</v>
+        <v>0.07883762928684417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.22909066666666</v>
+        <v>21.811182</v>
       </c>
       <c r="H13">
-        <v>78.68727199999999</v>
+        <v>65.43354600000001</v>
       </c>
       <c r="I13">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="J13">
-        <v>0.25934884558192</v>
+        <v>0.2297691872894318</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N13">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O13">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P13">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q13">
-        <v>2902.280977930612</v>
+        <v>2228.746347522968</v>
       </c>
       <c r="R13">
-        <v>26120.52880137551</v>
+        <v>20058.71712770671</v>
       </c>
       <c r="S13">
-        <v>0.05401736254034064</v>
+        <v>0.04284765975339919</v>
       </c>
       <c r="T13">
-        <v>0.05401736254034063</v>
+        <v>0.04284765975339919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3464193333333334</v>
+        <v>0.3334030000000001</v>
       </c>
       <c r="H14">
-        <v>1.039258</v>
+        <v>1.000209</v>
       </c>
       <c r="I14">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="J14">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>112.708133</v>
+        <v>68.18146900000001</v>
       </c>
       <c r="N14">
-        <v>338.124399</v>
+        <v>204.544407</v>
       </c>
       <c r="O14">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="P14">
-        <v>0.212152469292986</v>
+        <v>0.1244286043321187</v>
       </c>
       <c r="Q14">
-        <v>39.04427629510467</v>
+        <v>22.73190630900701</v>
       </c>
       <c r="R14">
-        <v>351.398486655942</v>
+        <v>204.587156781063</v>
       </c>
       <c r="S14">
-        <v>0.0007266935364961485</v>
+        <v>0.0004370210132512368</v>
       </c>
       <c r="T14">
-        <v>0.0007266935364961485</v>
+        <v>0.0004370210132512367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3464193333333334</v>
+        <v>0.3334030000000001</v>
       </c>
       <c r="H15">
-        <v>1.039258</v>
+        <v>1.000209</v>
       </c>
       <c r="I15">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="J15">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>568.7352599999999</v>
       </c>
       <c r="O15">
-        <v>0.3568467408440064</v>
+        <v>0.345973452289334</v>
       </c>
       <c r="P15">
-        <v>0.3568467408440064</v>
+        <v>0.3459734522893341</v>
       </c>
       <c r="Q15">
-        <v>65.67362987078666</v>
+        <v>63.20601396326</v>
       </c>
       <c r="R15">
-        <v>591.06266883708</v>
+        <v>568.85412566934</v>
       </c>
       <c r="S15">
-        <v>0.001222320065164704</v>
+        <v>0.001215135936701049</v>
       </c>
       <c r="T15">
-        <v>0.001222320065164704</v>
+        <v>0.001215135936701049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3464193333333334</v>
+        <v>0.3334030000000001</v>
       </c>
       <c r="H16">
-        <v>1.039258</v>
+        <v>1.000209</v>
       </c>
       <c r="I16">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="J16">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>118.3222806666667</v>
+        <v>188.0130056666667</v>
       </c>
       <c r="N16">
-        <v>354.966842</v>
+        <v>564.0390170000001</v>
       </c>
       <c r="O16">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883566</v>
       </c>
       <c r="P16">
-        <v>0.2227200766053953</v>
+        <v>0.3431166302883567</v>
       </c>
       <c r="Q16">
-        <v>40.98912558702623</v>
+        <v>62.68410012828368</v>
       </c>
       <c r="R16">
-        <v>368.902130283236</v>
+        <v>564.1569011545531</v>
       </c>
       <c r="S16">
-        <v>0.0007628911445454418</v>
+        <v>0.001205102140595668</v>
       </c>
       <c r="T16">
-        <v>0.0007628911445454418</v>
+        <v>0.001205102140595668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3464193333333334</v>
+        <v>0.3334030000000001</v>
       </c>
       <c r="H17">
-        <v>1.039258</v>
+        <v>1.000209</v>
       </c>
       <c r="I17">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="J17">
-        <v>0.003425336216532898</v>
+        <v>0.003512223058331201</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>110.6512236666667</v>
+        <v>102.1836573333333</v>
       </c>
       <c r="N17">
-        <v>331.953671</v>
+        <v>306.550972</v>
       </c>
       <c r="O17">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901906</v>
       </c>
       <c r="P17">
-        <v>0.2082807132576123</v>
+        <v>0.1864813130901907</v>
       </c>
       <c r="Q17">
-        <v>38.33172313512422</v>
+        <v>34.06833790590534</v>
       </c>
       <c r="R17">
-        <v>344.985508216118</v>
+        <v>306.615041153148</v>
       </c>
       <c r="S17">
-        <v>0.000713431470326603</v>
+        <v>0.0006549639677832476</v>
       </c>
       <c r="T17">
-        <v>0.000713431470326603</v>
+        <v>0.0006549639677832476</v>
       </c>
     </row>
   </sheetData>
